--- a/data/Nils_250221_20210225-101635/Ratios.xlsx
+++ b/data/Nils_250221_20210225-101635/Ratios.xlsx
@@ -411,7 +411,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
@@ -425,7 +425,7 @@
     <col min="12" max="12" width="21.7109375" customWidth="1"/>
     <col min="13" max="13" width="23.7109375" customWidth="1"/>
     <col min="14" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" customWidth="1"/>
     <col min="16" max="16" width="20.7109375" customWidth="1"/>
     <col min="17" max="17" width="21.7109375" customWidth="1"/>
     <col min="18" max="18" width="20.7109375" customWidth="1"/>
@@ -497,10 +497,10 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2">
-        <v>-2.043596356763877</v>
+        <v>-2.057741233326138</v>
       </c>
       <c r="B2">
-        <v>0.001504159094322598</v>
+        <v>0.00150413777460899</v>
       </c>
       <c r="C2">
         <v>0.009930923148273228</v>
@@ -539,10 +539,10 @@
         <v>0.150723928303017</v>
       </c>
       <c r="O2">
-        <v>1.320946098557838</v>
+        <v>1.320948087526761</v>
       </c>
       <c r="P2">
-        <v>0.3060077741037006</v>
+        <v>0.3060073134943528</v>
       </c>
       <c r="Q2">
         <v>0.1773238600266967</v>
@@ -551,18 +551,18 @@
         <v>0.5220643806217672</v>
       </c>
       <c r="S2">
-        <v>0.2350229197655485</v>
+        <v>0.235023292489963</v>
       </c>
       <c r="T2">
-        <v>0.5173216242739743</v>
+        <v>0.5173214114714446</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3">
-        <v>9.859180966125036</v>
+        <v>9.844867381475719</v>
       </c>
       <c r="B3">
-        <v>0.0006652301796982871</v>
+        <v>0.0006652207508307103</v>
       </c>
       <c r="C3">
         <v>0.01003707742987939</v>
@@ -601,10 +601,10 @@
         <v>0.06587355863436981</v>
       </c>
       <c r="O3">
-        <v>0.003751228668355174</v>
+        <v>0.003753217049396492</v>
       </c>
       <c r="P3">
-        <v>1.626328518811927</v>
+        <v>1.625466882474972</v>
       </c>
       <c r="Q3">
         <v>0.3902057875413185</v>
@@ -613,18 +613,18 @@
         <v>0.4850975247503</v>
       </c>
       <c r="S3">
-        <v>0.001473012409628235</v>
+        <v>0.001473786502812541</v>
       </c>
       <c r="T3">
-        <v>1.760598982626331</v>
+        <v>1.759794056786792</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4">
-        <v>-3.80273985714108</v>
+        <v>-3.816859799880779</v>
       </c>
       <c r="B4">
-        <v>0.001530512610567441</v>
+        <v>0.001530490917323254</v>
       </c>
       <c r="C4">
         <v>0.009921547586516383</v>
@@ -663,10 +663,10 @@
         <v>0.1536354968842174</v>
       </c>
       <c r="O4">
-        <v>1.321187919201051</v>
+        <v>1.321189907788415</v>
       </c>
       <c r="P4">
-        <v>0.2966434367813083</v>
+        <v>0.2966429908788535</v>
       </c>
       <c r="Q4">
         <v>0.178531574599959</v>
@@ -675,18 +675,18 @@
         <v>0.3809863365794904</v>
       </c>
       <c r="S4">
-        <v>0.2361709823197491</v>
+        <v>0.2361713386449745</v>
       </c>
       <c r="T4">
-        <v>0.378656794723942</v>
+        <v>0.3786565527152522</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5">
-        <v>8.438568163946281</v>
+        <v>8.42427471483842</v>
       </c>
       <c r="B5">
-        <v>0.0008485347671310481</v>
+        <v>0.0008485227401331792</v>
       </c>
       <c r="C5">
         <v>0.01004439860141725</v>
@@ -725,10 +725,10 @@
         <v>0.0841434266715886</v>
       </c>
       <c r="O5">
-        <v>0.007997031474588363</v>
+        <v>0.00799901972189606</v>
       </c>
       <c r="P5">
-        <v>0.9655368684566756</v>
+        <v>0.965296865843396</v>
       </c>
       <c r="Q5">
         <v>0.1927019369962816</v>
@@ -737,18 +737,18 @@
         <v>0.2926344533734293</v>
       </c>
       <c r="S5">
-        <v>0.001539840312304982</v>
+        <v>0.001540222474305018</v>
       </c>
       <c r="T5">
-        <v>1.01236950144155</v>
+        <v>1.012146500227368</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6">
-        <v>-0.4520556278893029</v>
+        <v>-0.4662230626985009</v>
       </c>
       <c r="B6">
-        <v>0.001490510845541379</v>
+        <v>0.001490489719275895</v>
       </c>
       <c r="C6">
         <v>0.009761110889197724</v>
@@ -787,10 +787,10 @@
         <v>0.1491184944087578</v>
       </c>
       <c r="O6">
-        <v>1.320105125478525</v>
+        <v>1.320107113994624</v>
       </c>
       <c r="P6">
-        <v>0.2854462222521955</v>
+        <v>0.2854457918826794</v>
       </c>
       <c r="Q6">
         <v>0.1780193329665596</v>
@@ -799,18 +799,18 @@
         <v>0.5034499833607</v>
       </c>
       <c r="S6">
-        <v>0.2351810107556532</v>
+        <v>0.2351813653888696</v>
       </c>
       <c r="T6">
-        <v>0.4348626584506936</v>
+        <v>0.4348627137034843</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7">
-        <v>9.49617761518029</v>
+        <v>9.481869175683277</v>
       </c>
       <c r="B7">
-        <v>0.0006594036218248174</v>
+        <v>0.0006593942755419525</v>
       </c>
       <c r="C7">
         <v>0.01005799534628304</v>
@@ -849,10 +849,10 @@
         <v>0.06532007118467584</v>
       </c>
       <c r="O7">
-        <v>0.008772765872473064</v>
+        <v>0.008774754252940668</v>
       </c>
       <c r="P7">
-        <v>1.005466958928373</v>
+        <v>1.005239137179149</v>
       </c>
       <c r="Q7">
         <v>0.1887872490927404</v>
@@ -861,18 +861,18 @@
         <v>0.2626803934313284</v>
       </c>
       <c r="S7">
-        <v>0.001654065746500321</v>
+        <v>0.001654442344015474</v>
       </c>
       <c r="T7">
-        <v>1.08201899306626</v>
+        <v>1.081828161608998</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8">
-        <v>-1.229123681971034</v>
+        <v>-1.243280102740218</v>
       </c>
       <c r="B8">
-        <v>0.001999757396669946</v>
+        <v>0.001999729052424219</v>
       </c>
       <c r="C8">
         <v>0.009893468271573936</v>
@@ -911,10 +911,10 @@
         <v>0.2002218370685834</v>
       </c>
       <c r="O8">
-        <v>1.321381995253645</v>
+        <v>1.321383983749202</v>
       </c>
       <c r="P8">
-        <v>0.3291433398358259</v>
+        <v>0.3291428443811557</v>
       </c>
       <c r="Q8">
         <v>0.1785084657915787</v>
@@ -923,18 +923,18 @@
         <v>0.7195552648457435</v>
       </c>
       <c r="S8">
-        <v>0.2370731273352465</v>
+        <v>0.2370734835371542</v>
       </c>
       <c r="T8">
-        <v>0.6737926412275616</v>
+        <v>0.6737925747004632</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9">
-        <v>10.95430265724806</v>
+        <v>10.93997355051668</v>
       </c>
       <c r="B9">
-        <v>0.0006244291800394009</v>
+        <v>0.0006244203294787541</v>
       </c>
       <c r="C9">
         <v>0.01005044820802821</v>
@@ -973,10 +973,10 @@
         <v>0.06176631113771581</v>
       </c>
       <c r="O9">
-        <v>0.011148229350472</v>
+        <v>0.01115021763499328</v>
       </c>
       <c r="P9">
-        <v>0.7944685991716693</v>
+        <v>0.7943269013885956</v>
       </c>
       <c r="Q9">
         <v>0.2936872899123126</v>
@@ -985,18 +985,18 @@
         <v>0.3360573715860993</v>
       </c>
       <c r="S9">
-        <v>0.003288980973108082</v>
+        <v>0.003289580199064019</v>
       </c>
       <c r="T9">
-        <v>0.7625862833591343</v>
+        <v>0.7624518867062802</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10">
-        <v>-1.379381632204302</v>
+        <v>-1.393535923240985</v>
       </c>
       <c r="B10">
-        <v>0.001708908218159415</v>
+        <v>0.001708883996364041</v>
       </c>
       <c r="C10">
         <v>0.0101064116314303</v>
@@ -1035,10 +1035,10 @@
         <v>0.171126871078684</v>
       </c>
       <c r="O10">
-        <v>1.321930295374194</v>
+        <v>1.321932283906519</v>
       </c>
       <c r="P10">
-        <v>0.2869594062577907</v>
+        <v>0.2869589745090427</v>
       </c>
       <c r="Q10">
         <v>0.1787041313160304</v>
@@ -1047,18 +1047,18 @@
         <v>0.6016353926773823</v>
       </c>
       <c r="S10">
-        <v>0.2352068800659234</v>
+        <v>0.2352072486112528</v>
       </c>
       <c r="T10">
-        <v>0.5397776026854159</v>
+        <v>0.5397775158218402</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11">
-        <v>13.51419950466615</v>
+        <v>13.49983411436106</v>
       </c>
       <c r="B11">
-        <v>0.001706023587052863</v>
+        <v>0.001705999406143795</v>
       </c>
       <c r="C11">
         <v>0.01007095481400789</v>
@@ -1097,10 +1097,10 @@
         <v>0.1683275466576241</v>
       </c>
       <c r="O11">
-        <v>0.006692471584146193</v>
+        <v>0.006694459231116382</v>
       </c>
       <c r="P11">
-        <v>2.09757560222703</v>
+        <v>2.096952738741243</v>
       </c>
       <c r="Q11">
         <v>0.02142986701166543</v>
@@ -1109,18 +1109,18 @@
         <v>0.2653789209222713</v>
       </c>
       <c r="S11">
-        <v>0.0001438452294333044</v>
+        <v>0.0001438878040375252</v>
       </c>
       <c r="T11">
-        <v>1.962953983298244</v>
+        <v>1.962352159255405</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12">
-        <v>-3.462600541802918</v>
+        <v>-3.476725305623707</v>
       </c>
       <c r="B12">
-        <v>0.001978122725656926</v>
+        <v>0.001978094688057611</v>
       </c>
       <c r="C12">
         <v>0.00985054361695856</v>
@@ -1159,10 +1159,10 @@
         <v>0.1984995973791252</v>
       </c>
       <c r="O12">
-        <v>1.321974640802712</v>
+        <v>1.321976629685961</v>
       </c>
       <c r="P12">
-        <v>0.2447241900784264</v>
+        <v>0.2447238217166258</v>
       </c>
       <c r="Q12">
         <v>0.1772413555669835</v>
@@ -1171,18 +1171,18 @@
         <v>0.6663006652493315</v>
       </c>
       <c r="S12">
-        <v>0.2346933114214962</v>
+        <v>0.2346936720085404</v>
       </c>
       <c r="T12">
-        <v>0.6340035002946115</v>
+        <v>0.6340033988648147</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13">
-        <v>14.20818985039007</v>
+        <v>14.19381462357516</v>
       </c>
       <c r="B13">
-        <v>0.001177868146927319</v>
+        <v>0.001177851452010102</v>
       </c>
       <c r="C13">
         <v>0.01004418385735894</v>
@@ -1221,10 +1221,10 @@
         <v>0.1161367220965816</v>
       </c>
       <c r="O13">
-        <v>0.008334265206837305</v>
+        <v>0.0083362536170602</v>
       </c>
       <c r="P13">
-        <v>1.184195554039658</v>
+        <v>1.183913183762592</v>
       </c>
       <c r="Q13">
         <v>0.2535140267707651</v>
@@ -1233,18 +1233,18 @@
         <v>0.284330756161806</v>
       </c>
       <c r="S13">
-        <v>0.002111150169834125</v>
+        <v>0.002111648560700679</v>
       </c>
       <c r="T13">
-        <v>1.045470327864813</v>
+        <v>1.045225837973764</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14">
-        <v>-1.469680048894584</v>
+        <v>-1.483833060055839</v>
       </c>
       <c r="B14">
-        <v>0.001356334429680709</v>
+        <v>0.001356315205210567</v>
       </c>
       <c r="C14">
         <v>0.009796361534917197</v>
@@ -1283,10 +1283,10 @@
         <v>0.1358330741270955</v>
       </c>
       <c r="O14">
-        <v>1.325102029449361</v>
+        <v>1.325104018511275</v>
       </c>
       <c r="P14">
-        <v>0.302669993562722</v>
+        <v>0.3026695396122626</v>
       </c>
       <c r="Q14">
         <v>0.1769879430735549</v>
@@ -1295,18 +1295,18 @@
         <v>0.5948252550791576</v>
       </c>
       <c r="S14">
-        <v>0.2339808462121833</v>
+        <v>0.2339811975022381</v>
       </c>
       <c r="T14">
-        <v>0.6475096514196562</v>
+        <v>0.6475094355142329</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15">
-        <v>7.748901417679033</v>
+        <v>7.734617743798911</v>
       </c>
       <c r="B15">
-        <v>0.0006264419337740797</v>
+        <v>0.0006264330546849789</v>
       </c>
       <c r="C15">
         <v>0.01006356184849808</v>
@@ -1345,10 +1345,10 @@
         <v>0.06216250227539964</v>
       </c>
       <c r="O15">
-        <v>0.00968199811891334</v>
+        <v>0.009683986746654751</v>
       </c>
       <c r="P15">
-        <v>0.9558449433794161</v>
+        <v>0.9556486683684929</v>
       </c>
       <c r="Q15">
         <v>0.03378394774846583</v>
@@ -1357,10 +1357,10 @@
         <v>0.1823105071512318</v>
       </c>
       <c r="S15">
-        <v>0.0003281594465805675</v>
+        <v>0.0003282266960048436</v>
       </c>
       <c r="T15">
-        <v>0.9195133852561179</v>
+        <v>0.9193255083098189</v>
       </c>
     </row>
   </sheetData>

--- a/data/Nils_250221_20210225-101635/Ratios.xlsx
+++ b/data/Nils_250221_20210225-101635/Ratios.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+  <si>
+    <t>Lab. #</t>
+  </si>
   <si>
     <t>dU234</t>
   </si>
@@ -89,12 +92,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,8 +118,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,35 +415,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
-    <col min="13" max="13" width="23.7109375" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
-    <col min="19" max="19" width="23.7109375" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="22.7109375" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="22.7109375" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" customWidth="1"/>
+    <col min="20" max="20" width="23.7109375" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,872 +505,917 @@
       <c r="T1" t="s">
         <v>19</v>
       </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2">
+    <row r="2" spans="1:21" s="1" customFormat="1">
+      <c r="A2" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B2" s="1">
         <v>-2.057741233326138</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="1">
         <v>0.00150413777460899</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="1">
         <v>0.009930923148273228</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="1">
         <v>0.8774547548144708</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="1">
         <v>0.007135614051847238</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="1">
         <v>0.005107362811310736</v>
       </c>
-      <c r="G2">
+      <c r="H2" s="1">
         <v>2.732245830070074</v>
       </c>
-      <c r="H2">
+      <c r="I2" s="1">
         <v>0.01058032901085836</v>
       </c>
-      <c r="I2">
+      <c r="J2" s="1">
         <v>2.077439114060999</v>
       </c>
-      <c r="J2">
+      <c r="K2" s="1">
         <v>0.8589860399284676</v>
       </c>
-      <c r="K2">
+      <c r="L2" s="1">
         <v>0.007563544903236939</v>
       </c>
-      <c r="L2">
+      <c r="M2" s="1">
         <v>0.1507239283030169</v>
       </c>
-      <c r="M2">
+      <c r="N2" s="1">
         <v>5.485559941715637E-05</v>
       </c>
-      <c r="N2">
+      <c r="O2" s="1">
         <v>0.150723928303017</v>
       </c>
-      <c r="O2">
+      <c r="P2" s="1">
         <v>1.320948087526761</v>
       </c>
-      <c r="P2">
+      <c r="Q2" s="1">
         <v>0.3060073134943528</v>
       </c>
-      <c r="Q2">
+      <c r="R2" s="1">
         <v>0.1773238600266967</v>
       </c>
-      <c r="R2">
+      <c r="S2" s="1">
         <v>0.5220643806217672</v>
       </c>
-      <c r="S2">
+      <c r="T2" s="1">
         <v>0.235023292489963</v>
       </c>
-      <c r="T2">
+      <c r="U2" s="1">
         <v>0.5173214114714446</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3">
+        <v>10973</v>
+      </c>
+      <c r="B3">
         <v>9.844867381475719</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.0006652207508307103</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.01003707742987939</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.2109829383679077</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.007130140354821792</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.003760935246886276</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.950583255563352</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.004025114216608421</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1.487983277307228</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.2318905356044888</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.007653756449980103</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.06587355863436939</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>5.550987046786795E-05</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.06587355863436981</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.003753217049396492</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1.625466882474972</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.3902057875413185</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.4850975247503</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.001473786502812541</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>1.759794056786792</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4">
+    <row r="4" spans="1:21" s="1" customFormat="1">
+      <c r="A4" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B4" s="1">
         <v>-3.816859799880779</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="1">
         <v>0.001530490917323254</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="1">
         <v>0.009921547586516383</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="1">
         <v>1.021059769770752</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="1">
         <v>0.007132786005423213</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="1">
         <v>0.006224379527414909</v>
       </c>
-      <c r="G4">
+      <c r="H4" s="1">
         <v>2.731878047656659</v>
       </c>
-      <c r="H4">
+      <c r="I4" s="1">
         <v>0.01038814261191085</v>
       </c>
-      <c r="I4">
+      <c r="J4" s="1">
         <v>2.071159138591187</v>
       </c>
-      <c r="J4">
+      <c r="K4" s="1">
         <v>1.063623562634396</v>
       </c>
-      <c r="K4">
+      <c r="L4" s="1">
         <v>0.007550212295912843</v>
       </c>
-      <c r="L4">
+      <c r="M4" s="1">
         <v>0.1536354968842173</v>
       </c>
-      <c r="M4">
+      <c r="N4" s="1">
         <v>5.475890293740866E-05</v>
       </c>
-      <c r="N4">
+      <c r="O4" s="1">
         <v>0.1536354968842174</v>
       </c>
-      <c r="O4">
+      <c r="P4" s="1">
         <v>1.321189907788415</v>
       </c>
-      <c r="P4">
+      <c r="Q4" s="1">
         <v>0.2966429908788535</v>
       </c>
-      <c r="Q4">
+      <c r="R4" s="1">
         <v>0.178531574599959</v>
       </c>
-      <c r="R4">
+      <c r="S4" s="1">
         <v>0.3809863365794904</v>
       </c>
-      <c r="S4">
+      <c r="T4" s="1">
         <v>0.2361713386449745</v>
       </c>
-      <c r="T4">
+      <c r="U4" s="1">
         <v>0.3786565527152522</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5">
+        <v>10974</v>
+      </c>
+      <c r="B5">
         <v>8.42427471483842</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.0008485227401331792</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.01004439860141725</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.2681126862395659</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.007129465537014433</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.002623609078135862</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2.159118188477732</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.004971657520491239</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1.643744936567878</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.2944145928721096</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.007642989578120603</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.08414342667158865</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>5.543178232041109E-05</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.0841434266715886</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.00799901972189606</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.965296865843396</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.1927019369962816</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.2926344533734293</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.001540222474305018</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1.012146500227368</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6">
+    <row r="6" spans="1:21" s="1" customFormat="1">
+      <c r="A6" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B6" s="1">
         <v>-0.4662230626985009</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="1">
         <v>0.001490489719275895</v>
       </c>
-      <c r="C6">
+      <c r="D6" s="1">
         <v>0.009761110889197724</v>
       </c>
-      <c r="D6">
+      <c r="E6" s="1">
         <v>0.9630220572685179</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="1">
         <v>0.007132472448238683</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="1">
         <v>0.006083679020159629</v>
       </c>
-      <c r="G6">
+      <c r="H6" s="1">
         <v>2.731840629371685</v>
       </c>
-      <c r="H6">
+      <c r="I6" s="1">
         <v>0.0117831529291645</v>
       </c>
-      <c r="I6">
+      <c r="J6" s="1">
         <v>2.113150102365951</v>
       </c>
-      <c r="J6">
+      <c r="K6" s="1">
         <v>0.9886021806888251</v>
       </c>
-      <c r="K6">
+      <c r="L6" s="1">
         <v>0.007575607243559847</v>
       </c>
-      <c r="L6">
+      <c r="M6" s="1">
         <v>0.1491184944087574</v>
       </c>
-      <c r="M6">
+      <c r="N6" s="1">
         <v>5.49430831192104E-05</v>
       </c>
-      <c r="N6">
+      <c r="O6" s="1">
         <v>0.1491184944087578</v>
       </c>
-      <c r="O6">
+      <c r="P6" s="1">
         <v>1.320107113994624</v>
       </c>
-      <c r="P6">
+      <c r="Q6" s="1">
         <v>0.2854457918826794</v>
       </c>
-      <c r="Q6">
+      <c r="R6" s="1">
         <v>0.1780193329665596</v>
       </c>
-      <c r="R6">
+      <c r="S6" s="1">
         <v>0.5034499833607</v>
       </c>
-      <c r="S6">
+      <c r="T6" s="1">
         <v>0.2351813653888696</v>
       </c>
-      <c r="T6">
+      <c r="U6" s="1">
         <v>0.4348627137034843</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7">
+        <v>10975</v>
+      </c>
+      <c r="B7">
         <v>9.481869175683277</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>0.0006593942755419525</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.01005799534628304</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.260436837475041</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.007130559169576384</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.00311747727905999</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>2.209360053469982</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.0056653596426625</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1.679009071936906</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.2645944796686643</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.007651005235463241</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>0.06532007118467645</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>5.548991692447286E-05</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.06532007118467584</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.008774754252940668</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>1.005239137179149</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>0.1887872490927404</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0.2626803934313284</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>0.001654442344015474</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>1.081828161608998</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8">
+    <row r="8" spans="1:21" s="1" customFormat="1">
+      <c r="A8" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B8" s="1">
         <v>-1.243280102740218</v>
       </c>
-      <c r="B8">
+      <c r="C8" s="1">
         <v>0.001999729052424219</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="1">
         <v>0.009893468271573936</v>
       </c>
-      <c r="D8">
+      <c r="E8" s="1">
         <v>1.111023899120239</v>
       </c>
-      <c r="E8">
+      <c r="F8" s="1">
         <v>0.00713246942172406</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="1">
         <v>0.00536747415919013</v>
       </c>
-      <c r="G8">
+      <c r="H8" s="1">
         <v>2.731711989396673</v>
       </c>
-      <c r="H8">
+      <c r="I8" s="1">
         <v>0.01293814926168108</v>
       </c>
-      <c r="I8">
+      <c r="J8" s="1">
         <v>2.096233332407959</v>
       </c>
-      <c r="J8">
+      <c r="K8" s="1">
         <v>1.018172322170478</v>
       </c>
-      <c r="K8">
+      <c r="L8" s="1">
         <v>0.007569717818833017</v>
       </c>
-      <c r="L8">
+      <c r="M8" s="1">
         <v>0.2002218370685847</v>
       </c>
-      <c r="M8">
+      <c r="N8" s="1">
         <v>5.490036929550131E-05</v>
       </c>
-      <c r="N8">
+      <c r="O8" s="1">
         <v>0.2002218370685834</v>
       </c>
-      <c r="O8">
+      <c r="P8" s="1">
         <v>1.321383983749202</v>
       </c>
-      <c r="P8">
+      <c r="Q8" s="1">
         <v>0.3291428443811557</v>
       </c>
-      <c r="Q8">
+      <c r="R8" s="1">
         <v>0.1785084657915787</v>
       </c>
-      <c r="R8">
+      <c r="S8" s="1">
         <v>0.7195552648457435</v>
       </c>
-      <c r="S8">
+      <c r="T8" s="1">
         <v>0.2370734835371542</v>
       </c>
-      <c r="T8">
+      <c r="U8" s="1">
         <v>0.6737925747004632</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9">
+        <v>10976</v>
+      </c>
+      <c r="B9">
         <v>10.93997355051668</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>0.0006244203294787541</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.01005044820802821</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.2530130412244127</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.007129383349829613</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.003441255651347961</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2.311885433697452</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.005007610776655325</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1.760462260515619</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.2375342815352314</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>0.007662056413841328</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>0.061766311137716</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>5.557006704216917E-05</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0.06176631113771581</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.01115021763499328</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.7943269013885956</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.2936872899123126</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.3360573715860993</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>0.003289580199064019</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>0.7624518867062802</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10">
+    <row r="10" spans="1:21" s="1" customFormat="1">
+      <c r="A10" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B10" s="1">
         <v>-1.393535923240985</v>
       </c>
-      <c r="B10">
+      <c r="C10" s="1">
         <v>0.001708883996364041</v>
       </c>
-      <c r="C10">
+      <c r="D10" s="1">
         <v>0.0101064116314303</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="1">
         <v>0.9932681726429663</v>
       </c>
-      <c r="E10">
+      <c r="F10" s="1">
         <v>0.007133306416001005</v>
       </c>
-      <c r="F10">
+      <c r="G10" s="1">
         <v>0.007684000833802775</v>
       </c>
-      <c r="G10">
+      <c r="H10" s="1">
         <v>2.731606041088039</v>
       </c>
-      <c r="H10">
+      <c r="I10" s="1">
         <v>0.01606696128332144</v>
       </c>
-      <c r="I10">
+      <c r="J10" s="1">
         <v>2.040314848989135</v>
       </c>
-      <c r="J10">
+      <c r="K10" s="1">
         <v>1.05463350512679</v>
       </c>
-      <c r="K10">
+      <c r="L10" s="1">
         <v>0.007568579008811347</v>
       </c>
-      <c r="L10">
+      <c r="M10" s="1">
         <v>0.1711268710786837</v>
       </c>
-      <c r="M10">
+      <c r="N10" s="1">
         <v>5.48921099267582E-05</v>
       </c>
-      <c r="N10">
+      <c r="O10" s="1">
         <v>0.171126871078684</v>
       </c>
-      <c r="O10">
+      <c r="P10" s="1">
         <v>1.321932283906519</v>
       </c>
-      <c r="P10">
+      <c r="Q10" s="1">
         <v>0.2869589745090427</v>
       </c>
-      <c r="Q10">
+      <c r="R10" s="1">
         <v>0.1787041313160304</v>
       </c>
-      <c r="R10">
+      <c r="S10" s="1">
         <v>0.6016353926773823</v>
       </c>
-      <c r="S10">
+      <c r="T10" s="1">
         <v>0.2352072486112528</v>
       </c>
-      <c r="T10">
+      <c r="U10" s="1">
         <v>0.5397775158218402</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11">
+        <v>10977</v>
+      </c>
+      <c r="B11">
         <v>13.49983411436106</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>0.001705999406143795</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.01007095481400789</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.2986904371338959</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.007124895087740757</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.005593744070573265</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.8868431574315141</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.006520309130870749</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.6759725841655233</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.3519500666539866</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>0.007681457957518402</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.1683275466576244</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>5.571077927719122E-05</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>0.1683275466576241</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0.006694459231116382</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>2.096952738741243</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>0.02142986701166543</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>0.2653789209222713</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>0.0001438878040375252</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>1.962352159255405</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12">
+    <row r="12" spans="1:21" s="1" customFormat="1">
+      <c r="A12" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B12" s="1">
         <v>-3.476725305623707</v>
       </c>
-      <c r="B12">
+      <c r="C12" s="1">
         <v>0.001978094688057611</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="1">
         <v>0.00985054361695856</v>
       </c>
-      <c r="D12">
+      <c r="E12" s="1">
         <v>1.257566988304802</v>
       </c>
-      <c r="E12">
+      <c r="F12" s="1">
         <v>0.007136285582239438</v>
       </c>
-      <c r="F12">
+      <c r="G12" s="1">
         <v>0.00666788557826547</v>
       </c>
-      <c r="G12">
+      <c r="H12" s="1">
         <v>2.731636492675933</v>
       </c>
-      <c r="H12">
+      <c r="I12" s="1">
         <v>0.009697510701937679</v>
       </c>
-      <c r="I12">
+      <c r="J12" s="1">
         <v>2.10006716014183</v>
       </c>
-      <c r="J12">
+      <c r="K12" s="1">
         <v>1.257053177180705</v>
       </c>
-      <c r="K12">
+      <c r="L12" s="1">
         <v>0.007552790223140451</v>
       </c>
-      <c r="L12">
+      <c r="M12" s="1">
         <v>0.1984995973791246</v>
       </c>
-      <c r="M12">
+      <c r="N12" s="1">
         <v>5.477759969205655E-05</v>
       </c>
-      <c r="N12">
+      <c r="O12" s="1">
         <v>0.1984995973791252</v>
       </c>
-      <c r="O12">
+      <c r="P12" s="1">
         <v>1.321976629685961</v>
       </c>
-      <c r="P12">
+      <c r="Q12" s="1">
         <v>0.2447238217166258</v>
       </c>
-      <c r="Q12">
+      <c r="R12" s="1">
         <v>0.1772413555669835</v>
       </c>
-      <c r="R12">
+      <c r="S12" s="1">
         <v>0.6663006652493315</v>
       </c>
-      <c r="S12">
+      <c r="T12" s="1">
         <v>0.2346936720085404</v>
       </c>
-      <c r="T12">
+      <c r="U12" s="1">
         <v>0.6340033988648147</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21">
       <c r="A13">
+        <v>10978</v>
+      </c>
+      <c r="B13">
         <v>14.19381462357516</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>0.001177851452010102</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.01004418385735894</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.2708641015240115</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.00713186081305721</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.004514846134268364</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1.223802820214978</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.00499679801452334</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.937339033773181</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.3357594109903039</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>0.007686717733519771</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.1161367220965819</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>5.574892649110299E-05</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>0.1161367220965816</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>0.0083362536170602</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>1.183913183762592</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>0.2535140267707651</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>0.284330756161806</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>0.002111648560700679</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>1.045225837973764</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14">
+    <row r="14" spans="1:21" s="1" customFormat="1">
+      <c r="A14" s="1">
+        <v>10815</v>
+      </c>
+      <c r="B14" s="1">
         <v>-1.483833060055839</v>
       </c>
-      <c r="B14">
+      <c r="C14" s="1">
         <v>0.001356315205210567</v>
       </c>
-      <c r="C14">
+      <c r="D14" s="1">
         <v>0.009796361534917197</v>
       </c>
-      <c r="D14">
+      <c r="E14" s="1">
         <v>0.8905218793325516</v>
       </c>
-      <c r="E14">
+      <c r="F14" s="1">
         <v>0.007136008787142223</v>
       </c>
-      <c r="F14">
+      <c r="G14" s="1">
         <v>0.006416128109678045</v>
       </c>
-      <c r="G14">
+      <c r="H14" s="1">
         <v>2.731608239009467</v>
       </c>
-      <c r="H14">
+      <c r="I14" s="1">
         <v>0.01089181502435076</v>
       </c>
-      <c r="I14">
+      <c r="J14" s="1">
         <v>2.107049376569273</v>
       </c>
-      <c r="J14">
+      <c r="K14" s="1">
         <v>0.882968860282688</v>
       </c>
-      <c r="K14">
+      <c r="L14" s="1">
         <v>0.007567894634096343</v>
       </c>
-      <c r="L14">
+      <c r="M14" s="1">
         <v>0.1358330741270958</v>
       </c>
-      <c r="M14">
+      <c r="N14" s="1">
         <v>5.488714640955856E-05</v>
       </c>
-      <c r="N14">
+      <c r="O14" s="1">
         <v>0.1358330741270955</v>
       </c>
-      <c r="O14">
+      <c r="P14" s="1">
         <v>1.325104018511275</v>
       </c>
-      <c r="P14">
+      <c r="Q14" s="1">
         <v>0.3026695396122626</v>
       </c>
-      <c r="Q14">
+      <c r="R14" s="1">
         <v>0.1769879430735549</v>
       </c>
-      <c r="R14">
+      <c r="S14" s="1">
         <v>0.5948252550791576</v>
       </c>
-      <c r="S14">
+      <c r="T14" s="1">
         <v>0.2339811975022381</v>
       </c>
-      <c r="T14">
+      <c r="U14" s="1">
         <v>0.6475094355142329</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21">
       <c r="A15">
+        <v>10979</v>
+      </c>
+      <c r="B15">
         <v>7.734617743798911</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>0.0006264330546849789</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.01006356184849808</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.2309611937970814</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.007133597056990576</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.003493621230262842</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>3.301919378547065</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.00503181376156186</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>2.506202038867788</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.2343070566058561</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>0.007637762570823872</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>0.06216250227539859</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>5.539387276581887E-05</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>0.06216250227539964</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>0.009683986746654751</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>0.9556486683684929</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>0.03378394774846583</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>0.1823105071512318</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>0.0003282266960048436</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>0.9193255083098189</v>
       </c>
     </row>
